--- a/biology/Botanique/Caladoc/Caladoc.xlsx
+++ b/biology/Botanique/Caladoc/Caladoc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  caladoc est un cépage métis de France produisant  des raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caladoc est une obtention de Paul Truel du Institut national de la recherche agronomique de Montpellier. L'origine génétique est vérifiée et c'est un croisement des cépages grenache noir  et Malbec réalisé en 1958. Le cépage est recommandé ou autorisé dans la majorité des départements viticoles français (Ardèche, Aude, Aveyron, Corse, Gers, Gironde, Hérault, Landes, Loire-Atlantique, Lot, Lot-et-Garonne, Maine-et-Loire, Nièvre, Pyrénées Atlantiques, Hautes-Pyrénées, Pyrénées Orientales, Tarn-et-Garonne, Var et Vaucluse). En France il couvre 1.427 hectares (2004).
 </t>
@@ -543,7 +557,9 @@
           <t>Qualités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est résistant à la sécheresse et aux parasites, ce qui induit moins de traitements et en conséquence un coût de revient moins élevé. Il donne de très bons résultats, tant du point de vue de la qualité que de la quantité. Le vin produit est  généralement utilisé  dans les assemblages et est très apprécié en rosé.
 </t>
@@ -574,7 +590,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc.
 Jeunes feuilles vertes.
@@ -606,7 +624,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque hâtive: 20 jours après le chasselas.
 </t>
@@ -637,7 +657,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille assez grosse. La grappe est tronconique et peu compacte. Le cépage est vigoureux et assez fertile. Il est assez résistant à la pourriture grise et il est moins sensible à la coulure que le grenache.
 Le vin rouge a une belle couleur intense. Il est assez corsé et riche en tannins. Les vins rosés du caladoc sont fins et équilibrés.
@@ -669,7 +691,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">INRA 1510-104
 </t>
